--- a/iorthoAPI/data/apitest.xlsx
+++ b/iorthoAPI/data/apitest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="image" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -129,7 +129,7 @@
     <t>https://opm-cas.sh-sit.eainc.com:8443/OPM/doctor/updateDoctor</t>
   </si>
   <si>
-    <t>{"cityId":"340800","cityName":"安庆","crmUserCode":"D201811210001","provinceId":"340000","provinceName":"安徽"}</t>
+    <t>{"cityId":"340800","cityName":"安庆","crmUserCode":"D202009180002","provinceId":"340000","provinceName":"安徽"}</t>
   </si>
   <si>
     <t>"msg":"成功"</t>
@@ -144,7 +144,7 @@
     <t>https://opm-cas.sh-sit.eainc.com:8443/OPM/doctor/updatequeryBacklogMessage</t>
   </si>
   <si>
-    <t>{"crmUserCode":"D201811210001"}</t>
+    <t>{"crmUserCode":"D202009180002"}</t>
   </si>
   <si>
     <t>4</t>
@@ -162,7 +162,7 @@
     <t>https://opm-cas.sh-sit.eainc.com:8443/OPM/doctorSpread/addDoctorSpread</t>
   </si>
   <si>
-    <t>{"crmUserCode":"D201811210001","type":"1","content":"nini哈哈哈哈哈哈ni"}</t>
+    <t>{"crmUserCode":"D202009180002","type":"1","content":"接口添加医生推广信息"}</t>
   </si>
   <si>
     <t>form_data</t>
@@ -180,13 +180,13 @@
     <t>7</t>
   </si>
   <si>
-    <t>更新医生修改信息</t>
+    <t>更新医生推广信息</t>
   </si>
   <si>
     <t>https://opm-cas.sh-sit.eainc.com:8443/OPM/doctorSpread/updateDoctorSpread</t>
   </si>
   <si>
-    <t>{"crmUserCode":"D201811210001","type":"1","spreadId":"487","content":"20200918"}</t>
+    <t>{"crmUserCode":"D202009180002","spreadId":str(global_vars['spreadId']),"content":"接口更新医生推广信息"}</t>
   </si>
   <si>
     <t>8</t>
@@ -195,7 +195,7 @@
     <t>删除医生推广信息</t>
   </si>
   <si>
-    <t>{"crmUserCode":"D201811210001","type":"1","spreadId":"487","content":"20200918","isDelete":"1"}</t>
+    <t>{"crmUserCode":"D202009180002","spreadId":str(global_vars['spreadId1']),"isDelete":"1"}</t>
   </si>
   <si>
     <t>9</t>
@@ -207,34 +207,25 @@
     <t>https://opm-cas.sh-sit.eainc.com:8443/OPM/doctor/updatePassWord</t>
   </si>
   <si>
-    <t>{"crmUserCode":"D201811210001","userName":"","oldPassWord":"","newPassWord":"","confirmPassWord":""}</t>
+    <t>{"crmUserCode":"D202009180002","userName":"yanry4548","oldPassWord":"333333","newPassWord":"333333","confirmPassWord":"333333"}</t>
+  </si>
+  <si>
+    <t>更改医生的城市</t>
+  </si>
+  <si>
+    <t>{"crmUserCode":"D202009180002","cityId":"340800","cityName":"安庆","provinceId":"340000","provinceName":"安徽"}</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>发送邮箱验证码</t>
+    <t>上传资格证书</t>
   </si>
   <si>
-    <t>https://opm-cas.sh-sit.eainc.com:8443/OPM/doctor/sendexmail</t>
+    <t>https://opm-cas.sh-sit.eainc.com:8443/OPM/docCert/addOrUpdateDocCert</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>发送手机验证码</t>
-  </si>
-  <si>
-    <t>https://opm-cas.sh-sit.eainc.com:8443/OPM/doctor/sendphone</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>找回密码发送验证码</t>
-  </si>
-  <si>
-    <t>https://opm-cas.sh-sit.eainc.com:8443/OPM/doctor/sendbackpassword</t>
+    <t>{"docCode":"D202009180002","docName":"严如玉","docCertNo":"99999999"}</t>
   </si>
   <si>
     <t>医生创建普通助理</t>
@@ -949,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,6 +969,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1350,18 +1344,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="4" width="9" style="11"/>
-    <col min="5" max="5" width="29.125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9" style="11"/>
-    <col min="7" max="7" width="49.125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9" style="11"/>
-    <col min="9" max="9" width="13" style="11" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="12" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9" style="11"/>
-    <col min="13" max="13" width="10.625" style="11" customWidth="1"/>
+    <col min="1" max="4" width="9" style="12"/>
+    <col min="5" max="5" width="29.125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9" style="12"/>
+    <col min="7" max="7" width="49.125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="9" style="12"/>
+    <col min="9" max="9" width="13" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="12" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9" style="12"/>
+    <col min="13" max="13" width="10.625" style="12" customWidth="1"/>
     <col min="14" max="14" width="9.25" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="11"/>
+    <col min="15" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="25" customHeight="1" spans="1:14">
@@ -1435,7 +1429,7 @@
       <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -1446,7 +1440,7 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" s="10" customFormat="1" ht="67" customHeight="1" spans="1:16383">
+    <row r="3" s="11" customFormat="1" ht="67" customHeight="1" spans="1:16383">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1473,7 +1467,7 @@
       <c r="J3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -17869,12 +17863,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -17884,13 +17878,13 @@
     <col min="3" max="3" width="20.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="5.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="42.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="52" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.625" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.125" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="3" customWidth="1"/>
     <col min="13" max="13" width="8.625" style="3" customWidth="1"/>
     <col min="14" max="14" width="9.25" style="3" customWidth="1"/>
     <col min="15" max="16383" width="49.625" style="3" customWidth="1"/>
@@ -18005,7 +17999,7 @@
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N3" s="2"/>
     </row>
@@ -18028,8 +18022,11 @@
       <c r="G4" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="M4" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -18065,7 +18062,7 @@
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N5" s="2"/>
     </row>
@@ -18101,12 +18098,12 @@
         <v>22</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N6" s="3"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="49" customHeight="1" spans="1:14">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -18115,16 +18112,27 @@
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" s="5" customFormat="1" ht="60" customHeight="1" spans="1:14">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -18154,16 +18162,16 @@
       <c r="K8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="3"/>
+      <c r="M8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="4"/>
     </row>
-    <row r="9" ht="39" customHeight="1" spans="1:13">
-      <c r="A9" s="3" t="s">
+    <row r="9" s="4" customFormat="1" ht="39" customHeight="1" spans="1:13">
+      <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -18192,8 +18200,8 @@
         <v>22</v>
       </c>
       <c r="L9" s="5"/>
-      <c r="M9" s="3" t="s">
-        <v>14</v>
+      <c r="M9" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="41" customHeight="1" spans="1:13">
@@ -18206,64 +18214,77 @@
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="E10" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="M10" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="11" ht="44" customHeight="1" spans="1:13">
-      <c r="A11" s="3" t="s">
+    <row r="11" ht="41" customHeight="1" spans="2:13">
+      <c r="B11" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="47" customHeight="1" spans="1:13">
+      <c r="A12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" ht="37" customHeight="1" spans="1:13">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="H12" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="M12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" ht="49" customHeight="1" spans="1:13">
-      <c r="A13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -18279,10 +18300,10 @@
   <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelRow="7"/>
@@ -18354,7 +18375,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
@@ -18363,10 +18384,10 @@
         <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>20</v>
@@ -18374,7 +18395,7 @@
       <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -18389,7 +18410,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -18398,10 +18419,10 @@
         <v>17</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>20</v>
@@ -18409,7 +18430,7 @@
       <c r="J3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -18424,7 +18445,7 @@
         <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>16</v>
@@ -18433,7 +18454,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>20</v>
@@ -18459,19 +18480,19 @@
         <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>20</v>
@@ -18494,7 +18515,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
@@ -18503,10 +18524,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>20</v>
@@ -18514,7 +18535,7 @@
       <c r="J6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -18529,22 +18550,22 @@
         <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>29</v>
@@ -18564,22 +18585,22 @@
         <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>24</v>

--- a/iorthoAPI/data/apitest.xlsx
+++ b/iorthoAPI/data/apitest.xlsx
@@ -378,10 +378,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -410,6 +410,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -432,23 +462,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,7 +486,39 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -478,14 +533,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -493,55 +540,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,7 +569,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,55 +635,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,31 +695,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,67 +743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,17 +778,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,8 +801,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,15 +837,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -856,22 +852,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,10 +883,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -895,133 +895,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2292,7 +2292,6 @@
       <c r="M2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="2"/>
       <c r="O2" s="5" t="s">
         <v>22</v>
       </c>
@@ -2328,7 +2327,6 @@
       <c r="M3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="2"/>
       <c r="O3" s="5"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="116" customHeight="1" spans="1:16384">
@@ -18768,7 +18766,6 @@
       <c r="M5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="2"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="42" customHeight="1" spans="1:15">
@@ -18803,7 +18800,6 @@
       <c r="M6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="2"/>
       <c r="O6" s="5" t="s">
         <v>22</v>
       </c>
@@ -18840,7 +18836,6 @@
       <c r="M7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="2"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="9:15">
@@ -18927,7 +18922,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -19013,19 +19008,15 @@
       <c r="E2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>109</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
       <c r="O2" s="5"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="69" customHeight="1" spans="1:15">
@@ -19047,20 +19038,15 @@
       <c r="F3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>113</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
       <c r="O3" s="5" t="s">
         <v>22</v>
       </c>
@@ -35485,35 +35471,23 @@
       <c r="E5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>117</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="9:15">
       <c r="I6" s="5"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
       <c r="O6" s="5"/>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="9:15">
       <c r="I7" s="5"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="9:15">
